--- a/data/trans_camb/P23_7_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_7_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>2,32</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,78</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 4,42</t>
+          <t>-0,94; 7,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 3,17</t>
+          <t>-1,11; 7,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 3,07</t>
+          <t>1,29; 11,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 5,06</t>
+          <t>-6,81; 2,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 2,74</t>
+          <t>-5,02; 5,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,06</t>
+          <t>-2,97; 9,33</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 3,63</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,25; 4,76</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-0,18; 8,39</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>121,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,46%</t>
+          <t>108,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-8,4%</t>
+          <t>245,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>-26,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>31,73%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>27,41%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>76,02%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,44; 150,67</t>
+          <t>-40,58; 940,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-61,69; 113,93</t>
+          <t>-47,68; 837,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-51,23; 58,86</t>
+          <t>3,24; 1312,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,6; 98,03</t>
+          <t>-68,05; 65,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,87; 59,2</t>
+          <t>-50,73; 116,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,88; 66,45</t>
+          <t>-34,39; 191,71</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-46,83; 104,19</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-36,08; 140,08</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 241,55</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,42</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 9,68</t>
+          <t>-5,22; 11,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 1,67</t>
+          <t>-5,76; 3,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,22; -0,35</t>
+          <t>-5,69; 3,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 1,41</t>
+          <t>-7,27; 1,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 3,31</t>
+          <t>-5,35; 4,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 0,22</t>
+          <t>-4,23; 6,58</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,15; 3,82</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 3,07</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 3,9</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>-3,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-34,96%</t>
+          <t>-20,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-54,38%</t>
+          <t>-17,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-39,85%</t>
+          <t>-43,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-25,05%</t>
+          <t>-3,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-38,27%</t>
+          <t>20,3%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-26,06%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-11,53%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2,79%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-64,18; 278,68</t>
+          <t>-87,18; 455,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-74,28; 64,38</t>
+          <t>-80,83; 205,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-82,75; -0,12</t>
+          <t>-80,23; 150,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-75,69; 35,02</t>
+          <t>-81,29; 66,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,09; 75,31</t>
+          <t>-65,69; 147,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,07; 9,83</t>
+          <t>-49,74; 188,7</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-72,85; 106,81</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-57,28; 91,63</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-48,59; 106,29</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,94</t>
+          <t>27,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>10,99</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>28,47</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>5,28</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14,82</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,39</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17,09</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 33,14</t>
+          <t>4,71; 67,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 27,37</t>
+          <t>0,0; 42,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 10,17</t>
+          <t>0,0; 71,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 15,51</t>
+          <t>-7,01; 9,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 18,81</t>
+          <t>-9,14; 5,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 18,77</t>
+          <t>-4,56; 17,09</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 40,98</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 17,53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2,92; 43,8</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>133,53%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>138,24%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>54,48%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>106,7%</t>
+          <t>63,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>-6,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>124,39%</t>
+          <t>184,17%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1037,47%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>377,44%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1196,46%</t>
         </is>
       </c>
     </row>
@@ -1042,17 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-73,11; 1231,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,42; 1056,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,18; 730,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,76</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 6,22</t>
+          <t>-0,09; 12,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 3,23</t>
+          <t>-0,92; 5,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,13</t>
+          <t>1,45; 15,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 2,74</t>
+          <t>-5,08; 1,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,52</t>
+          <t>-3,03; 3,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,97</t>
+          <t>-1,34; 6,4</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 4,75</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 3,25</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 8,33</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>137,19%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,18%</t>
+          <t>64,07%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-23,15%</t>
+          <t>180,69%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>-28,78%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,16%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>35,01%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>20,33%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>78,29%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 161,05</t>
+          <t>-20,99; 565,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-45,15; 84,12</t>
+          <t>-28,86; 259,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-51,85; 23,92</t>
+          <t>13,87; 714,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,77; 48,44</t>
+          <t>-60,73; 34,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,91; 49,58</t>
+          <t>-40,12; 82,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,04; 39,78</t>
+          <t>-18,41; 134,25</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-30,07; 124,95</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-24,43; 93,34</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>13,71; 217,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
